--- a/Module 3/CG-DN Case Study for Database_v1.3_Answer_and_Data.xlsx
+++ b/Module 3/CG-DN Case Study for Database_v1.3_Answer_and_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C_Document\module_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeGym\Bài Tập\Module 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132D036F-1733-43D5-A6B6-A5EB7C3177DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CC92B3-D62E-4598-B635-68849B089650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="816" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="816" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="3" state="hidden" r:id="rId1"/>
@@ -32,6 +32,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1097,21 +1108,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1119,13 +1130,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1133,7 +1144,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1141,7 +1152,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1523,21 +1534,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="1"/>
-    <col min="2" max="2" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="9.19921875" style="1"/>
+    <col min="2" max="2" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>template</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1545,27 +1556,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
@@ -1581,21 +1592,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="1"/>
+    <col min="1" max="1" width="9.19921875" style="1"/>
     <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.21875" style="1"/>
+    <col min="3" max="3" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>loai_dich_vu</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>116</v>
       </c>
@@ -1604,7 +1615,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1613,7 +1624,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1622,7 +1633,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1643,31 +1654,31 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="1"/>
-    <col min="2" max="2" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.19921875" style="1"/>
+    <col min="2" max="2" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.09765625" style="1" customWidth="1"/>
     <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.21875" style="1"/>
+    <col min="13" max="13" width="16.09765625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>dich_vu</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>121</v>
       </c>
@@ -1706,7 +1717,7 @@
       </c>
       <c r="O4"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1745,7 +1756,7 @@
       </c>
       <c r="O5"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1784,7 +1795,7 @@
       </c>
       <c r="O6"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1823,7 +1834,7 @@
       </c>
       <c r="O7"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1862,7 +1873,7 @@
       </c>
       <c r="O8"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1901,7 +1912,7 @@
       </c>
       <c r="O9"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1953,23 +1964,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="1"/>
-    <col min="2" max="3" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.19921875" style="1"/>
+    <col min="2" max="3" width="19.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.21875" style="1"/>
+    <col min="6" max="6" width="24.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>dich_vu_di_kem</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>157</v>
       </c>
@@ -1987,7 +1998,7 @@
       </c>
       <c r="H4"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2005,7 +2016,7 @@
       </c>
       <c r="H5"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2023,7 +2034,7 @@
       </c>
       <c r="H6"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -2041,7 +2052,7 @@
       </c>
       <c r="H7"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2059,7 +2070,7 @@
       </c>
       <c r="H8"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2077,7 +2088,7 @@
       </c>
       <c r="H9"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -2105,28 +2116,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B2:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="1"/>
-    <col min="2" max="2" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.19921875" style="1"/>
+    <col min="2" max="2" width="13.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.21875" style="1"/>
+    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>hop_dong</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>178</v>
       </c>
@@ -2150,7 +2163,7 @@
       </c>
       <c r="J4"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2174,7 +2187,7 @@
       </c>
       <c r="J5"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2198,7 +2211,7 @@
       </c>
       <c r="J6"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -2222,7 +2235,7 @@
       </c>
       <c r="J7"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2246,7 +2259,7 @@
       </c>
       <c r="J8"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2270,7 +2283,7 @@
       </c>
       <c r="J9"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -2294,7 +2307,7 @@
       </c>
       <c r="J10"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
@@ -2318,7 +2331,7 @@
       </c>
       <c r="J11"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
@@ -2342,7 +2355,7 @@
       </c>
       <c r="J12"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>156</v>
       </c>
@@ -2366,7 +2379,7 @@
       </c>
       <c r="J13"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>136</v>
       </c>
@@ -2390,7 +2403,7 @@
       </c>
       <c r="J14"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>277</v>
       </c>
@@ -2414,7 +2427,7 @@
       </c>
       <c r="J15"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>306</v>
       </c>
@@ -2448,25 +2461,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="1"/>
-    <col min="2" max="2" width="22.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.19921875" style="1"/>
+    <col min="2" max="2" width="22.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.21875" style="1"/>
+    <col min="4" max="4" width="13.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>hop_dong_chi_tiet</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>191</v>
       </c>
@@ -2481,7 +2496,7 @@
       </c>
       <c r="G4"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2496,7 +2511,7 @@
       </c>
       <c r="G5"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2511,7 +2526,7 @@
       </c>
       <c r="G6"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -2526,7 +2541,7 @@
       </c>
       <c r="G7"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2541,7 +2556,7 @@
       </c>
       <c r="G8"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2556,7 +2571,7 @@
       </c>
       <c r="G9"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -2571,7 +2586,7 @@
       </c>
       <c r="G10"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
@@ -2586,7 +2601,7 @@
       </c>
       <c r="G11"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
@@ -2614,29 +2629,29 @@
   </sheetPr>
   <dimension ref="B2:I197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="B187" sqref="B187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="1"/>
-    <col min="2" max="3" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="9.19921875" style="1"/>
+    <col min="2" max="3" width="20.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
@@ -2647,7 +2662,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2658,7 +2673,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>156</v>
       </c>
@@ -2669,12 +2684,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="2:4" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>236</v>
       </c>
@@ -2685,7 +2700,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -2696,7 +2711,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
@@ -2707,7 +2722,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>136</v>
       </c>
@@ -2718,12 +2733,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="2:9" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>236</v>
       </c>
@@ -2734,7 +2749,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
@@ -2745,7 +2760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
@@ -2756,7 +2771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
@@ -2767,12 +2782,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:9" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>236</v>
       </c>
@@ -2798,7 +2813,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>2</v>
       </c>
@@ -2824,7 +2839,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
@@ -2850,7 +2865,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
@@ -2876,7 +2891,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
@@ -2902,7 +2917,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
@@ -2928,7 +2943,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
@@ -2954,7 +2969,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
@@ -2980,7 +2995,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>5</v>
       </c>
@@ -3006,7 +3021,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
@@ -3032,7 +3047,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
@@ -3058,7 +3073,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
         <v>7</v>
       </c>
@@ -3076,7 +3091,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>52</v>
       </c>
@@ -3102,7 +3117,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>136</v>
       </c>
@@ -3128,12 +3143,12 @@
         <v>328</v>
       </c>
     </row>
-    <row r="43" spans="2:9" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
         <v>121</v>
       </c>
@@ -3150,7 +3165,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>2</v>
       </c>
@@ -3167,7 +3182,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>5</v>
       </c>
@@ -3184,7 +3199,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>4</v>
       </c>
@@ -3201,7 +3216,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>7</v>
       </c>
@@ -3218,12 +3233,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="2:7" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:7" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
         <v>121</v>
       </c>
@@ -3243,7 +3258,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>4</v>
       </c>
@@ -3263,27 +3278,27 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="2:7" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:7" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="2:7" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:7" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
         <v>329</v>
       </c>
@@ -3291,7 +3306,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>2</v>
       </c>
@@ -3299,7 +3314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>4</v>
       </c>
@@ -3307,7 +3322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>5</v>
       </c>
@@ -3315,7 +3330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>6</v>
       </c>
@@ -3323,7 +3338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>7</v>
       </c>
@@ -3331,7 +3346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>52</v>
       </c>
@@ -3339,7 +3354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>156</v>
       </c>
@@ -3347,12 +3362,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="2:6" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:6" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
         <v>262</v>
       </c>
@@ -3369,7 +3384,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>2</v>
       </c>
@@ -3386,7 +3401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3403,7 +3418,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
         <v>4</v>
       </c>
@@ -3420,7 +3435,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>5</v>
       </c>
@@ -3437,7 +3452,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>6</v>
       </c>
@@ -3454,7 +3469,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
         <v>7</v>
       </c>
@@ -3471,7 +3486,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
         <v>52</v>
       </c>
@@ -3488,7 +3503,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
         <v>53</v>
       </c>
@@ -3505,7 +3520,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
         <v>156</v>
       </c>
@@ -3522,7 +3537,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
         <v>136</v>
       </c>
@@ -3539,7 +3554,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
         <v>277</v>
       </c>
@@ -3556,7 +3571,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
         <v>306</v>
       </c>
@@ -3573,12 +3588,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="2:6" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:6" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
         <v>274</v>
       </c>
@@ -3586,7 +3601,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="s">
         <v>5</v>
       </c>
@@ -3594,7 +3609,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
         <v>6</v>
       </c>
@@ -3602,7 +3617,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
         <v>7</v>
       </c>
@@ -3610,12 +3625,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="2:9" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:9" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
         <v>262</v>
       </c>
@@ -3641,7 +3656,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="2" t="s">
         <v>2</v>
       </c>
@@ -3667,7 +3682,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="2" t="s">
         <v>156</v>
       </c>
@@ -3693,12 +3708,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="108" spans="2:9" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:9" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
         <v>274</v>
       </c>
@@ -3709,7 +3724,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="2" t="s">
         <v>3</v>
       </c>
@@ -3720,7 +3735,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>7</v>
       </c>
@@ -3731,12 +3746,12 @@
         <v>313</v>
       </c>
     </row>
-    <row r="115" spans="2:7" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:7" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="7" t="s">
         <v>262</v>
       </c>
@@ -3750,7 +3765,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="2" t="s">
         <v>2</v>
       </c>
@@ -3764,7 +3779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="2" t="s">
         <v>3</v>
       </c>
@@ -3778,7 +3793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" s="2" t="s">
         <v>3</v>
       </c>
@@ -3792,7 +3807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" s="2" t="s">
         <v>3</v>
       </c>
@@ -3806,7 +3821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122" s="2" t="s">
         <v>4</v>
       </c>
@@ -3820,12 +3835,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="2:7" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:7" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B127" s="7" t="s">
         <v>297</v>
       </c>
@@ -3845,7 +3860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B128" s="2" t="s">
         <v>3</v>
       </c>
@@ -3865,7 +3880,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" s="2" t="s">
         <v>136</v>
       </c>
@@ -3885,17 +3900,17 @@
         <v>293</v>
       </c>
     </row>
-    <row r="133" spans="2:7" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:7" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B133" s="10" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B137" s="7" t="s">
         <v>297</v>
       </c>
@@ -3903,7 +3918,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B138" s="2" t="s">
         <v>2</v>
       </c>
@@ -3911,7 +3926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B139" s="2" t="s">
         <v>5</v>
       </c>
@@ -3919,7 +3934,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B140" s="2" t="s">
         <v>6</v>
       </c>
@@ -3927,7 +3942,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B141" s="2" t="s">
         <v>7</v>
       </c>
@@ -3935,7 +3950,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142" s="2" t="s">
         <v>53</v>
       </c>
@@ -3943,7 +3958,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B143" s="2" t="s">
         <v>156</v>
       </c>
@@ -3951,17 +3966,17 @@
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="2:4" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:4" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" s="7" t="s">
         <v>83</v>
       </c>
@@ -3972,7 +3987,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" s="2" t="s">
         <v>136</v>
       </c>
@@ -3983,17 +3998,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="2:4" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:4" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B155" s="10" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B159" s="7" t="s">
         <v>236</v>
       </c>
@@ -4001,7 +4016,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" s="2" t="s">
         <v>2</v>
       </c>
@@ -4009,7 +4024,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" s="2" t="s">
         <v>4</v>
       </c>
@@ -4017,7 +4032,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162" s="2" t="s">
         <v>5</v>
       </c>
@@ -4025,17 +4040,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="165" spans="2:3" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:3" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B165" s="10" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B169" s="7" t="s">
         <v>274</v>
       </c>
@@ -4043,7 +4058,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170" s="2" t="s">
         <v>7</v>
       </c>
@@ -4051,17 +4066,17 @@
         <v>166</v>
       </c>
     </row>
-    <row r="173" spans="2:3" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:3" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B173" s="10" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B177" s="7" t="s">
         <v>316</v>
       </c>
@@ -4081,7 +4096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B178" s="2" t="s">
         <v>2</v>
       </c>
@@ -4101,7 +4116,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B179" s="2" t="s">
         <v>3</v>
       </c>
@@ -4121,7 +4136,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B180" s="2" t="s">
         <v>4</v>
       </c>
@@ -4141,7 +4156,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B181" s="2" t="s">
         <v>5</v>
       </c>
@@ -4161,7 +4176,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B182" s="2" t="s">
         <v>6</v>
       </c>
@@ -4181,7 +4196,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B183" s="2" t="s">
         <v>7</v>
       </c>
@@ -4201,7 +4216,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B184" s="2" t="s">
         <v>52</v>
       </c>
@@ -4221,7 +4236,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B185" s="2" t="s">
         <v>53</v>
       </c>
@@ -4241,7 +4256,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B186" s="2" t="s">
         <v>156</v>
       </c>
@@ -4261,7 +4276,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B187" s="2" t="s">
         <v>136</v>
       </c>
@@ -4281,7 +4296,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B188" s="2" t="s">
         <v>2</v>
       </c>
@@ -4301,7 +4316,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B189" s="2" t="s">
         <v>3</v>
       </c>
@@ -4321,7 +4336,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B190" s="2" t="s">
         <v>4</v>
       </c>
@@ -4341,7 +4356,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B191" s="2" t="s">
         <v>5</v>
       </c>
@@ -4361,7 +4376,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B192" s="2" t="s">
         <v>6</v>
       </c>
@@ -4381,7 +4396,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B193" s="2" t="s">
         <v>7</v>
       </c>
@@ -4401,7 +4416,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B194" s="2" t="s">
         <v>52</v>
       </c>
@@ -4421,7 +4436,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B195" s="2" t="s">
         <v>53</v>
       </c>
@@ -4441,7 +4456,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B196" s="2" t="s">
         <v>156</v>
       </c>
@@ -4461,7 +4476,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B197" s="2" t="s">
         <v>136</v>
       </c>
@@ -4492,21 +4507,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="1"/>
-    <col min="2" max="2" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="9.19921875" style="1"/>
+    <col min="2" max="2" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>vi_tri</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -4515,7 +4530,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -4524,7 +4539,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -4546,21 +4561,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="1"/>
-    <col min="2" max="2" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="9.19921875" style="1"/>
+    <col min="2" max="2" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>trinh_do</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
@@ -4569,7 +4584,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -4578,7 +4593,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -4587,7 +4602,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -4596,7 +4611,7 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4618,21 +4633,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="1"/>
-    <col min="2" max="2" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="9.19921875" style="1"/>
+    <col min="2" max="2" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>bo_phan</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
@@ -4641,7 +4656,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -4650,7 +4665,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -4659,7 +4674,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -4668,7 +4683,7 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4690,30 +4705,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="1"/>
-    <col min="2" max="2" width="14.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.19921875" style="1"/>
+    <col min="2" max="2" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.21875" style="1"/>
+    <col min="7" max="7" width="13.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>nhan_vien</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
@@ -4749,7 +4764,7 @@
       </c>
       <c r="N4"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -4785,7 +4800,7 @@
       </c>
       <c r="N5"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -4821,7 +4836,7 @@
       </c>
       <c r="N6"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -4857,7 +4872,7 @@
       </c>
       <c r="N7"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4893,7 +4908,7 @@
       </c>
       <c r="N8"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -4929,7 +4944,7 @@
       </c>
       <c r="N9"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -4965,7 +4980,7 @@
       </c>
       <c r="N10"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
@@ -5001,7 +5016,7 @@
       </c>
       <c r="N11"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
@@ -5037,7 +5052,7 @@
       </c>
       <c r="N12"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>156</v>
       </c>
@@ -5073,7 +5088,7 @@
       </c>
       <c r="N13"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>136</v>
       </c>
@@ -5134,21 +5149,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="1"/>
-    <col min="2" max="2" width="14.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="9.19921875" style="1"/>
+    <col min="2" max="2" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>loai_khach</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>81</v>
       </c>
@@ -5157,7 +5172,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -5166,7 +5181,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -5175,7 +5190,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -5184,7 +5199,7 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -5193,7 +5208,7 @@
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -5215,28 +5230,28 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="1"/>
-    <col min="2" max="2" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.19921875" style="1"/>
+    <col min="2" max="2" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.21875" style="1"/>
+    <col min="7" max="7" width="13.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>khach_hang</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>83</v>
       </c>
@@ -5266,7 +5281,7 @@
       </c>
       <c r="L4"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -5296,7 +5311,7 @@
       </c>
       <c r="L5"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -5326,7 +5341,7 @@
       </c>
       <c r="L6"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -5356,7 +5371,7 @@
       </c>
       <c r="L7"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -5386,7 +5401,7 @@
       </c>
       <c r="L8"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -5416,7 +5431,7 @@
       </c>
       <c r="L9"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -5446,7 +5461,7 @@
       </c>
       <c r="L10"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
@@ -5476,7 +5491,7 @@
       </c>
       <c r="L11"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
@@ -5506,7 +5521,7 @@
       </c>
       <c r="L12"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>156</v>
       </c>
@@ -5536,7 +5551,7 @@
       </c>
       <c r="L13"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>136</v>
       </c>
@@ -5591,22 +5606,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="1"/>
-    <col min="2" max="2" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="9.19921875" style="1"/>
+    <col min="2" max="2" width="13.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>kieu_thue</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>110</v>
       </c>
@@ -5616,7 +5631,7 @@
       <c r="E4"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -5626,7 +5641,7 @@
       <c r="E5"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -5636,7 +5651,7 @@
       <c r="E6"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -5646,7 +5661,7 @@
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
